--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\openhw\docs\core-v-docs.ArjanB_vplan_review\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B14F28-6393-4AA2-8667-B7E3A859DF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RV32Z" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RV32Z" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -19,71 +24,344 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arjan Bink</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{27CA3F17-45EE-4290-BD85-9931082704B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I don't see how this test will allow verification of fence.i. 
+According to the RISC-V spec: " FENCE.I instruction that provides explicit synchronization between writes to instruction memory and instruction fetches on the same hart."
+So, the test case should involve 'stores', ideally to the location that the core is executing from.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{3D68F891-B2E7-4261-A679-6484BBB0B467}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+You can use these 'unused' fields with any tool chain; e.g. by defining it with .word … in assembly.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{8095F643-732E-4C88-80E1-2AE50869058C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I don't know of any read side effects (they might be there, but I don't know them)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{83D7B3BF-F42D-4423-9A35-0C5BD3DED5CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{7761BBBC-3C54-4B45-8A37-6AA2035579DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Specifically these parts of the spec should be checked:
+"For both CSRRS and CSRRC, if rs1=x0, then the instruction will not write to the CSR at all, and
+so shall not cause any of the side effects that might otherwise occur on a CSR write, such as raising
+illegal instruction exceptions on accesses to read-only CSRs."
+The 'such as raising an illegal instruction exception' should be checked for the following:
+"For CSRRSI and CSRRCI, if the uimm[4:0] field is zero, then these instructions will not
+write to the CSR, and shall not cause any of the side effects that might otherwise occur on a CSR
+write."</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{72AEEAA9-37DF-472B-A6C5-FD15F266E6F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{8E415DEF-C2C1-4DEE-9365-FB4708F35302}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{6E31C7E5-F7C0-47A4-9203-54C867F3B5B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{76A163CA-04B0-484D-B15C-E3E47C0E1F28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be checked:
+"Some CSRs, such as the instructions-retired counter, instret, may be modified as side effects of
+instruction execution. In these cases, if a CSR access instruction reads a CSR, it reads the value
+prior to the execution of the instruction. If a CSR access instruction writes such a CSR, the write
+is done instead of the increment. In particular, a value written to instret by one instruction will
+be the value read by the following instruction."
+"In
+particular, a CSR access is performed after the execution of any prior instructions in program
+order whose behavior modifies or is modified by the CSR state and before the execution of any
+subsequent instructions in program order whose behavior modifies or is modified by the CSR state." (Of course this is quite difficult; maybe you can try to define specific scenarios where the CSR access ordering becomes visible; an extremely easy scenario is of course writing a CSR and then reading it back; probably you can think of more exotic scenarios)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{FDE840B5-9660-4026-85D0-BEFA4C027E9F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Arjan Bink:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Which VPLAN will take care of the following part of the RISC-V privileged spec:
+"Attempts to access a non-existent CSR raise an illegal instruction exception. Attempts to access a
+CSR without appropriate privilege level or to write a read-only register also raise illegal instruction
+exceptions. A read/write register might also contain some bits that are read-only, in which case
+writes to the read-only bits are ignored."
+Specifically also Debug related access rights should be checked.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t xml:space="preserve">Requirement Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Feature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verification Goal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass/Fail Criteria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coverage Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link to Coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA Chapter 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV32 Zifencei
+    <t>Requirement Location</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Sub Feature</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Verification Goal</t>
+  </si>
+  <si>
+    <t>Pass/Fail Criteria</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>Coverage Method</t>
+  </si>
+  <si>
+    <t>Link to Coverage</t>
+  </si>
+  <si>
+    <t>ISA Chapter 3</t>
+  </si>
+  <si>
+    <t>RV32 Zifencei
 Instruction-Fetch Fence</t>
   </si>
   <si>
-    <t xml:space="preserve">FENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A FENCE.I instruction ensures that a subsequent instruction fetch on a RISC-V hart will see any previous data stores already visible to the same RISC-V hart.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two loops:
+    <t>FENCE</t>
+  </si>
+  <si>
+    <t>A FENCE.I instruction ensures that a subsequent instruction fetch on a RISC-V hart will see any previous data stores already visible to the same RISC-V hart.</t>
+  </si>
+  <si>
+    <t>Two loops:
 1)  back-to-back addi x1, x1, 1 instructions
 2) b2b addi x1, x1, 1; fence.i;</t>
   </si>
   <si>
-    <t xml:space="preserve">Loop 1 will write indeterminate result to [x1] (depends on pipeline length).
+    <t>Loop 1 will write indeterminate result to [x1] (depends on pipeline length).
 Loop 2 will write number of iterations [x1].</t>
   </si>
   <si>
-    <t xml:space="preserve">Directed Sequence</t>
+    <t>Directed Sequence</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Simple</t>
+      <t>Simple</t>
     </r>
     <r>
       <rPr>
@@ -98,14 +376,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Complex</t>
+      <t>Complex</t>
     </r>
     <r>
       <rPr>
@@ -115,11 +393,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: detection of b2b read-write register addressing</t>
+      <t>: detection of b2b read-write register addressing</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">FENCE future extensions</t>
+    <t>FENCE future extensions</t>
   </si>
   <si>
     <r>
@@ -135,14 +413,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Note</t>
+      <t>Note</t>
     </r>
     <r>
       <rPr>
@@ -152,47 +430,47 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: requires non-standard toolchain.</t>
+      <t>: requires non-standard toolchain.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ensure reserved fields are ignored.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct operation of Zifencei instruction regardless of state of unused fields.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Functional coverage of non-zero values in reserved fields of Zifencei.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISA Chapter 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV32 Zicsr
+    <t>Ensure reserved fields are ignored.</t>
+  </si>
+  <si>
+    <t>Correct operation of Zifencei instruction regardless of state of unused fields.</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Functional coverage of non-zero values in reserved fields of Zifencei.</t>
+  </si>
+  <si>
+    <t>ISA Chapter 9</t>
+  </si>
+  <si>
+    <t>RV32 Zicsr
 Control and Status Register (CSR) Instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">CSRRW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrw rd, rs1, csr
+    <t>CSRRW</t>
+  </si>
+  <si>
+    <t>csrrw rd, rs1, csr
 rd = Zext([csr]); csr = [rs1]
 If rd == x0 then CSR is not read.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrw x0, rs1, csr using specific CSRs that have read side-effects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Compliance tests: correct test signature.
+    <t>Compliance tests: correct test signature.
 Random tests: RTL matches ISS.
 Check read side-affects for csr.</t>
   </si>
   <si>
-    <t xml:space="preserve">Compliance /
+    <t>Compliance /
 Directed Sequence /
 Random</t>
   </si>
@@ -210,14 +488,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">NOP</t>
+      <t>NOP</t>
     </r>
     <r>
       <rPr>
@@ -227,75 +505,75 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CSRRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrs rd, rs1, csr
+    <t>CSRRS</t>
+  </si>
+  <si>
+    <t>csrrs rd, rs1, csr
 rd = Zext([csr]); csr = [rs1] | csr
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrs x0, rs1, csr using specific CSRs that have read side-effects.
 Exercise csrrs rd x0, csr using specific CSRs that have write side-effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Compliance tests: correct test signature.
+    <t>Compliance tests: correct test signature.
 Random tests: RTL matches ISS.
 Check read\wite side-affects for csr.  (e.g. raising illegal instruction exceptions on accesses to read-only CSRs).</t>
   </si>
   <si>
-    <t xml:space="preserve">CSRRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrs rd, rs1, csr
+    <t>CSRRC</t>
+  </si>
+  <si>
+    <t>csrrs rd, rs1, csr
 rd = Zext([csr]); csr = ~[rs1] | csr
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrc x0, rs1, csr using specific CSRs that have read side-effects.
 Exercise csrrscrd x0, csr using specific CSRs that have write side-effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">CSRRWI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrwi rd, imm[4:0], csr
+    <t>CSRRWI</t>
+  </si>
+  <si>
+    <t>csrrwi rd, imm[4:0], csr
 rd = Zext([csr]); csr = Zext(imm[4:0])
 If rd == x0 then CSR is not read.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrwi x0, rs1, csr using specific CSRs that have read side-effects.</t>
   </si>
   <si>
-    <t xml:space="preserve">CSRRSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrsi rd, imm[4:0], csr
+    <t>CSRRSI</t>
+  </si>
+  <si>
+    <t>csrrsi rd, imm[4:0], csr
 rd = Zext([csr]); csr = Zext(imm[4:0]) | csr
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrsi x0, rs1, csr using specific CSRs that have read side-effects.
 Exercise csrrsi rd x0, csr using specific CSRs that have write side-effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">CSRRCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">csrrs rd, imm[4:0], csr
+    <t>CSRRCI</t>
+  </si>
+  <si>
+    <t>csrrs rd, imm[4:0], csr
 rd = Zext([csr]); csr = ~(Zext(imm[4:0])) | csr
 Note that not all bits of csr will be writable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
 Exercise csrrci x0, rs1, csr using specific CSRs that have read side-effects.
 Exercise csrrci rd x0, csr using specific CSRs that have write side-effect.</t>
   </si>
@@ -306,11 +584,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -319,22 +594,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
@@ -352,7 +612,32 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Ubuntu"/>
-      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -371,7 +656,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -379,101 +664,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -532,265 +774,567 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="54.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="1" width="9.14"/>
+    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="54.5703125" style="4" customWidth="1"/>
+    <col min="10" max="1023" width="17" style="4" customWidth="1"/>
+    <col min="1024" max="1025" width="9.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="30">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" s="12" customFormat="1" ht="56.1" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="11"/>
     </row>
-    <row r="3" s="10" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:9" s="12" customFormat="1" ht="57.75">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="11"/>
     </row>
-    <row r="4" s="10" customFormat="true" ht="66" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" s="12" customFormat="1" ht="93" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="11"/>
     </row>
-    <row r="5" s="10" customFormat="true" ht="102.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:9" s="12" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="11"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="1:9" s="12" customFormat="1" ht="128.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="11"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:9" s="12" customFormat="1" ht="85.5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="11"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="1:9" s="12" customFormat="1" ht="128.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="11"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="1:9" s="12" customFormat="1" ht="128.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="11"/>
     </row>
-    <row r="10" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:9" s="15" customFormat="1">
+      <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" spans="1:9"/>
+    <row r="13" spans="1:9"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
+++ b/verif/CV32E40P/VerificationPlan/base_instruction_set/CV32E40P_RV32Z_Extention_Instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\openhw\docs\core-v-docs.ArjanB_vplan_review\verif\CV32E40P\VerificationPlan\base_instruction_set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B14F28-6393-4AA2-8667-B7E3A859DF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ADD32C-C645-4DDC-AD5B-2E595A89712F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RV32Z" sheetId="1" r:id="rId1"/>
@@ -27,128 +27,64 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Arjan Bink</author>
+    <author>tc={5A05BC1A-9B7F-439B-B440-453BC10E77B0}</author>
+    <author>tc={E33B2498-DE20-40B9-BB86-2EB605997899}</author>
+    <author>tc={54C27416-B684-45D2-B32A-B19788778F74}</author>
+    <author>tc={B5AA9791-060C-4691-AFE1-BF96C839849E}</author>
+    <author>tc={9C5F91FC-BDE2-4EA6-867D-BEE700D96DED}</author>
+    <author>tc={923A87F0-E9CE-4F54-B8CA-B730D46F2CD1}</author>
+    <author>tc={E7D1C16E-E06F-4C7A-AC12-DE127071CF09}</author>
+    <author>tc={FAF20B29-79A6-4304-8309-4BE60CE07FF4}</author>
+    <author>tc={456611BB-44B4-4C47-996D-B62A7B488F8A}</author>
+    <author>tc={1AEDF478-A4FB-48AF-A21E-C4B39366624B}</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{27CA3F17-45EE-4290-BD85-9931082704B0}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{5A05BC1A-9B7F-439B-B440-453BC10E77B0}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I don't see how this test will allow verification of fence.i. 
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't see how this test will allow verification of fence.i. 
 According to the RISC-V spec: " FENCE.I instruction that provides explicit synchronization between writes to instruction memory and instruction fetches on the same hart."
-So, the test case should involve 'stores', ideally to the location that the core is executing from.</t>
-        </r>
+So, the test case should involve 'stores', ideally to the location that the core is executing from.
+Reply:
+    I admit to not fully understanding how FENCE worked when I wrote this feature in this Vplan.  Even now, I struggle to understand how a single thread, deterministic pipelne needs a fence.  Worse, I am not certain that our testbench allows the Data memory bus to address the Instruction memory.   This is still and "open issue" for this Vplan.</t>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{3D68F891-B2E7-4261-A679-6484BBB0B467}">
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{E33B2498-DE20-40B9-BB86-2EB605997899}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-You can use these 'unused' fields with any tool chain; e.g. by defining it with .word … in assembly.</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    You can use these 'unused' fields with any tool chain; e.g. by defining it with .word … in assembly.
+Reply:
+    Good suggestion, thanks.</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{8095F643-732E-4C88-80E1-2AE50869058C}">
+    <comment ref="F4" authorId="2" shapeId="0" xr:uid="{54C27416-B684-45D2-B32A-B19788778F74}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-I don't know of any read side effects (they might be there, but I don't know them)</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    I don't know of any read side effects (they might be there, but I don't know them)
+Reply:
+    You are right, there are none (that I know of).</t>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{83D7B3BF-F42D-4423-9A35-0C5BD3DED5CC}">
+    <comment ref="C5" authorId="3" shapeId="0" xr:uid="{B5AA9791-060C-4691-AFE1-BF96C839849E}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{7761BBBC-3C54-4B45-8A37-6AA2035579DC}">
+    <comment ref="F5" authorId="4" shapeId="0" xr:uid="{9C5F91FC-BDE2-4EA6-867D-BEE700D96DED}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Specifically these parts of the spec should be checked:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Specifically these parts of the spec should be checked:
 "For both CSRRS and CSRRC, if rs1=x0, then the instruction will not write to the CSR at all, and
 so shall not cause any of the side effects that might otherwise occur on a CSR write, such as raising
 illegal instruction exceptions on accesses to read-only CSRs."
@@ -156,102 +92,44 @@
 "For CSRRSI and CSRRCI, if the uimm[4:0] field is zero, then these instructions will not
 write to the CSR, and shall not cause any of the side effects that might otherwise occur on a CSR
 write."</t>
-        </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{72AEEAA9-37DF-472B-A6C5-FD15F266E6F3}">
+    <comment ref="C6" authorId="5" shapeId="0" xr:uid="{923A87F0-E9CE-4F54-B8CA-B730D46F2CD1}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1
+Reply:
+    Good catch, thanks.  Added.</t>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{8E415DEF-C2C1-4DEE-9365-FB4708F35302}">
+    <comment ref="C8" authorId="6" shapeId="0" xr:uid="{E7D1C16E-E06F-4C7A-AC12-DE127071CF09}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1
+Reply:
+    Good catch, thanks.  Added.</t>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{6E31C7E5-F7C0-47A4-9203-54C867F3B5B4}">
+    <comment ref="C9" authorId="7" shapeId="0" xr:uid="{FAF20B29-79A6-4304-8309-4BE60CE07FF4}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1
+Reply:
+    Dito.</t>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{76A163CA-04B0-484D-B15C-E3E47C0E1F28}">
+    <comment ref="B14" authorId="8" shapeId="0" xr:uid="{456611BB-44B4-4C47-996D-B62A7B488F8A}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be checked:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This should be checked:
 "Some CSRs, such as the instructions-retired counter, instret, may be modified as side effects of
 instruction execution. In these cases, if a CSR access instruction reads a CSR, it reads the value
 prior to the execution of the instruction. If a CSR access instruction writes such a CSR, the write
@@ -260,37 +138,24 @@
 "In
 particular, a CSR access is performed after the execution of any prior instructions in program
 order whose behavior modifies or is modified by the CSR state and before the execution of any
-subsequent instructions in program order whose behavior modifies or is modified by the CSR state." (Of course this is quite difficult; maybe you can try to define specific scenarios where the CSR access ordering becomes visible; an extremely easy scenario is of course writing a CSR and then reading it back; probably you can think of more exotic scenarios)</t>
-        </r>
+subsequent instructions in program order whose behavior modifies or is modified by the CSR state." (Of course this is quite difficult; maybe you can try to define specific scenarios where the CSR access ordering becomes visible; an extremely easy scenario is of course writing a CSR and then reading it back; probably you can think of more exotic scenarios)
+Reply:
+    GOOD ONES.   Thanks.  Although I think your second scenario (and maybe even your first scenario) should be in the CSR Vplan (which is not complete at the time of this writting).</t>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{FDE840B5-9660-4026-85D0-BEFA4C027E9F}">
+    <comment ref="B15" authorId="9" shapeId="0" xr:uid="{1AEDF478-A4FB-48AF-A21E-C4B39366624B}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arjan Bink:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Which VPLAN will take care of the following part of the RISC-V privileged spec:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Which VPLAN will take care of the following part of the RISC-V privileged spec:
 "Attempts to access a non-existent CSR raise an illegal instruction exception. Attempts to access a
 CSR without appropriate privilege level or to write a read-only register also raise illegal instruction
 exceptions. A read/write register might also contain some bits that are read-only, in which case
 writes to the read-only bits are ignored."
-Specifically also Debug related access rights should be checked.</t>
-        </r>
+Specifically also Debug related access rights should be checked.
+Reply:
+    This is done in several places.  The Exceptions and CSR Vplans both cover this.  I would prefer to have it done only in the Exceptions Vplan, but it is natural to do at least some of this testing in CSRs, so we have a bit of overlap (which I am prepared to accept).</t>
       </text>
     </comment>
   </commentList>
@@ -298,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -340,50 +205,126 @@
     <t>A FENCE.I instruction ensures that a subsequent instruction fetch on a RISC-V hart will see any previous data stores already visible to the same RISC-V hart.</t>
   </si>
   <si>
-    <t>Two loops:
-1)  back-to-back addi x1, x1, 1 instructions
-2) b2b addi x1, x1, 1; fence.i;</t>
-  </si>
-  <si>
-    <t>Loop 1 will write indeterminate result to [x1] (depends on pipeline length).
-Loop 2 will write number of iterations [x1].</t>
-  </si>
-  <si>
     <t>Directed Sequence</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>FENCE future extensions</t>
+  </si>
+  <si>
+    <t>Ensure reserved fields are ignored.</t>
+  </si>
+  <si>
+    <t>Correct operation of Zifencei instruction regardless of state of unused fields.</t>
+  </si>
+  <si>
+    <t>Functional coverage of non-zero values in reserved fields of Zifencei.</t>
+  </si>
+  <si>
+    <t>ISA Chapter 9</t>
+  </si>
+  <si>
+    <t>CSRRW</t>
+  </si>
+  <si>
+    <t>Compliance /
+Directed Sequence /
+Random</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Simple</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">Test case (Compliance).
+Functional coverage of verification goals with special attention to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: execution of sequence
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>NOP</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Complex</t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>CSRRS</t>
+  </si>
+  <si>
+    <t>csrrs rd, rs1, csr
+rd = Zext([csr]); csr = [rs1] | csr
+Note that not all bits of csr will be writable.</t>
+  </si>
+  <si>
+    <t>Compliance tests: correct test signature.
+Random tests: RTL matches ISS.
+Check read\wite side-affects for csr.  (e.g. raising illegal instruction exceptions on accesses to read-only CSRs).</t>
+  </si>
+  <si>
+    <t>CSRRC</t>
+  </si>
+  <si>
+    <t>csrrs rd, rs1, csr
+rd = Zext([csr]); csr = ~[rs1] | csr
+Note that not all bits of csr will be writable.</t>
+  </si>
+  <si>
+    <t>CSRRWI</t>
+  </si>
+  <si>
+    <t>csrrwi rd, imm[4:0], csr
+rd = Zext([csr]); csr = Zext(imm[4:0])
+If rd == x0 then CSR is not read.</t>
+  </si>
+  <si>
+    <t>CSRRSI</t>
+  </si>
+  <si>
+    <t>csrrsi rd, imm[4:0], csr
+rd = Zext([csr]); csr = Zext(imm[4:0]) | csr
+Note that not all bits of csr will be writable.</t>
+  </si>
+  <si>
+    <t>CSRRCI</t>
+  </si>
+  <si>
+    <t>csrrs rd, imm[4:0], csr
+rd = Zext([csr]); csr = ~(Zext(imm[4:0])) | csr
+Note that not all bits of csr will be writable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The unused fields, imm[11:0], rs1, and rd, are reserved.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+      </rPr>
+      <t>AB suggestion</t>
     </r>
     <r>
       <rPr>
@@ -393,13 +334,83 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>: detection of b2b read-write register addressing</t>
-    </r>
-  </si>
-  <si>
-    <t>FENCE future extensions</t>
-  </si>
-  <si>
+      <t>: use 'unused' fields by defining it with .word … in assembly.</t>
+    </r>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Compliance tests: correct test signature.
+Random tests: RTL matches ISS.</t>
+  </si>
+  <si>
+    <t>csrrw rd, rs1, csr
+rd = Zext([csr]); csr = [rs1]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t>Test specific condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: If rd == x0 then CSR is not read.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t>Test specific condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <charset val="1"/>
+      </rPr>
+      <t>: If rs1 == x0 then CSR is read and not written.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RV32 Zicsr
+Control and Status Register (CSR) Instructions
+Make note of "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+      </rPr>
+      <t>Test specific conditions</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -408,7 +419,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">The unused fields, imm[11:0], rs1, and rd, are reserved.
+      <t>" under Verification Goal.  These are extracted from Table 9.1 of ISA.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
 </t>
     </r>
     <r>
@@ -416,176 +432,94 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t>Test specific condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
-      <t>Note</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+      <t>: If uimm == 0 then CSR is read and not written.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t>Test specific condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
-      <t>: requires non-standard toolchain.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ensure reserved fields are ignored.</t>
-  </si>
-  <si>
-    <t>Correct operation of Zifencei instruction regardless of state of unused fields.</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Functional coverage of non-zero values in reserved fields of Zifencei.</t>
-  </si>
-  <si>
-    <t>ISA Chapter 9</t>
-  </si>
-  <si>
-    <t>RV32 Zicsr
-Control and Status Register (CSR) Instructions</t>
-  </si>
-  <si>
-    <t>CSRRW</t>
-  </si>
-  <si>
-    <t>csrrw rd, rs1, csr
-rd = Zext([csr]); csr = [rs1]
-If rd == x0 then CSR is not read.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrw x0, rs1, csr using specific CSRs that have read side-effects.</t>
-  </si>
-  <si>
-    <t>Compliance tests: correct test signature.
-Random tests: RTL matches ISS.
-Check read side-affects for csr.</t>
-  </si>
-  <si>
-    <t>Compliance /
-Directed Sequence /
-Random</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
+      <t>: If rd == x0 then CSR not read.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exercise instruction using all combinations of source and destination registers and CSRs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+      </rPr>
+      <t>Test specific condition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Test case (Compliance).
-Functional coverage of verification goals with special attention to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>NOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>CSRRS</t>
-  </si>
-  <si>
-    <t>csrrs rd, rs1, csr
-rd = Zext([csr]); csr = [rs1] | csr
-Note that not all bits of csr will be writable.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrs x0, rs1, csr using specific CSRs that have read side-effects.
-Exercise csrrs rd x0, csr using specific CSRs that have write side-effect.</t>
-  </si>
-  <si>
-    <t>Compliance tests: correct test signature.
-Random tests: RTL matches ISS.
-Check read\wite side-affects for csr.  (e.g. raising illegal instruction exceptions on accesses to read-only CSRs).</t>
-  </si>
-  <si>
-    <t>CSRRC</t>
-  </si>
-  <si>
-    <t>csrrs rd, rs1, csr
-rd = Zext([csr]); csr = ~[rs1] | csr
-Note that not all bits of csr will be writable.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrc x0, rs1, csr using specific CSRs that have read side-effects.
-Exercise csrrscrd x0, csr using specific CSRs that have write side-effect.</t>
-  </si>
-  <si>
-    <t>CSRRWI</t>
-  </si>
-  <si>
-    <t>csrrwi rd, imm[4:0], csr
-rd = Zext([csr]); csr = Zext(imm[4:0])
-If rd == x0 then CSR is not read.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrwi x0, rs1, csr using specific CSRs that have read side-effects.</t>
-  </si>
-  <si>
-    <t>CSRRSI</t>
-  </si>
-  <si>
-    <t>csrrsi rd, imm[4:0], csr
-rd = Zext([csr]); csr = Zext(imm[4:0]) | csr
-Note that not all bits of csr will be writable.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrsi x0, rs1, csr using specific CSRs that have read side-effects.
-Exercise csrrsi rd x0, csr using specific CSRs that have write side-effect.</t>
-  </si>
-  <si>
-    <t>CSRRCI</t>
-  </si>
-  <si>
-    <t>csrrs rd, imm[4:0], csr
-rd = Zext([csr]); csr = ~(Zext(imm[4:0])) | csr
-Note that not all bits of csr will be writable.</t>
-  </si>
-  <si>
-    <t>Exercise instruction using all combinations of source and destination registers and CSRs.
-Exercise csrrci x0, rs1, csr using specific CSRs that have read side-effects.
-Exercise csrrci rd x0, csr using specific CSRs that have write side-effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------- END -----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
+      <t>: If uimm == !0 then CSR is both read and written.</t>
+    </r>
+  </si>
+  <si>
+    <t>minstret</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSR read/write rules
+CSRs that may be modified as side effects of instruction execution. </t>
+  </si>
+  <si>
+    <t>The value written to minstret by one instruction will be the value read by the following instruction.</t>
+  </si>
+  <si>
+    <t>If a CSR access instruction reads minstret, it reads the value prior to the execution of the instruction.
+If a CSR access instruction writes minstret, the write is done instead of the increment.</t>
+  </si>
+  <si>
+    <t>Directed Sequence checked by ISS (RM).</t>
+  </si>
+  <si>
+    <t>Fail: read value != write value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -618,27 +552,19 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
     </font>
   </fonts>
   <fills count="3">
@@ -667,14 +593,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -709,6 +629,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,6 +725,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mike" id="{44D48E48-E484-4722-934F-A143D4648DE4}" userId="Mike" providerId="None"/>
+  <person displayName="Arjan Bink" id="{795DCD62-10AA-4F51-8591-F517B2355FB4}" userId="Arjan Bink" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,243 +1029,359 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E2" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{5A05BC1A-9B7F-439B-B440-453BC10E77B0}">
+    <text>I don't see how this test will allow verification of fence.i. 
+According to the RISC-V spec: " FENCE.I instruction that provides explicit synchronization between writes to instruction memory and instruction fetches on the same hart."
+So, the test case should involve 'stores', ideally to the location that the core is executing from.</text>
+  </threadedComment>
+  <threadedComment ref="E2" dT="2020-09-17T20:18:24.54" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{89A2B1DF-079A-4507-BDFC-E85CCB76BE9C}" parentId="{5A05BC1A-9B7F-439B-B440-453BC10E77B0}">
+    <text>I admit to not fully understanding how FENCE worked when I wrote this feature in this Vplan.  Even now, I struggle to understand how a single thread, deterministic pipelne needs a fence.  Worse, I am not certain that our testbench allows the Data memory bus to address the Instruction memory.   This is still and "open issue" for this Vplan.</text>
+  </threadedComment>
+  <threadedComment ref="D3" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{E33B2498-DE20-40B9-BB86-2EB605997899}">
+    <text>You can use these 'unused' fields with any tool chain; e.g. by defining it with .word … in assembly.</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2020-09-17T20:11:48.68" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{D4FEF507-B285-4F2E-A2F0-83ABA6897368}" parentId="{E33B2498-DE20-40B9-BB86-2EB605997899}">
+    <text>Good suggestion, thanks.</text>
+  </threadedComment>
+  <threadedComment ref="F4" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{54C27416-B684-45D2-B32A-B19788778F74}">
+    <text>I don't know of any read side effects (they might be there, but I don't know them)</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2020-09-17T20:19:52.31" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{24349D6C-1AB6-4596-8F80-60D7603583AB}" parentId="{54C27416-B684-45D2-B32A-B19788778F74}">
+    <text>You are right, there are none (that I know of).</text>
+  </threadedComment>
+  <threadedComment ref="C5" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{B5AA9791-060C-4691-AFE1-BF96C839849E}">
+    <text>specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</text>
+  </threadedComment>
+  <threadedComment ref="F5" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{9C5F91FC-BDE2-4EA6-867D-BEE700D96DED}">
+    <text>Specifically these parts of the spec should be checked:
+"For both CSRRS and CSRRC, if rs1=x0, then the instruction will not write to the CSR at all, and
+so shall not cause any of the side effects that might otherwise occur on a CSR write, such as raising
+illegal instruction exceptions on accesses to read-only CSRs."
+The 'such as raising an illegal instruction exception' should be checked for the following:
+"For CSRRSI and CSRRCI, if the uimm[4:0] field is zero, then these instructions will not
+write to the CSR, and shall not cause any of the side effects that might otherwise occur on a CSR
+write."</text>
+  </threadedComment>
+  <threadedComment ref="C6" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{923A87F0-E9CE-4F54-B8CA-B730D46F2CD1}">
+    <text>specifically the behavior of rs1=x0 and rs1!=0 should be checked, see table 9.1</text>
+  </threadedComment>
+  <threadedComment ref="C6" dT="2020-09-17T20:38:40.64" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{37980967-68D3-4299-8F94-2960C7FFBBD3}" parentId="{923A87F0-E9CE-4F54-B8CA-B730D46F2CD1}">
+    <text>Good catch, thanks.  Added.</text>
+  </threadedComment>
+  <threadedComment ref="C8" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{E7D1C16E-E06F-4C7A-AC12-DE127071CF09}">
+    <text>specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</text>
+  </threadedComment>
+  <threadedComment ref="C8" dT="2020-09-17T20:38:10.89" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{96C3E1B1-8D33-409B-A430-837B89D4BBF6}" parentId="{E7D1C16E-E06F-4C7A-AC12-DE127071CF09}">
+    <text>Good catch, thanks.  Added.</text>
+  </threadedComment>
+  <threadedComment ref="C9" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{FAF20B29-79A6-4304-8309-4BE60CE07FF4}">
+    <text>specifically the behavior of uimm=x0 and uimm!=0 should be checked, see table 9.1</text>
+  </threadedComment>
+  <threadedComment ref="C9" dT="2020-09-17T20:39:52.84" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{4067EAE4-FF60-48FD-B19E-32D65B0925FE}" parentId="{FAF20B29-79A6-4304-8309-4BE60CE07FF4}">
+    <text>Dito.</text>
+  </threadedComment>
+  <threadedComment ref="B14" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{456611BB-44B4-4C47-996D-B62A7B488F8A}">
+    <text>This should be checked:
+"Some CSRs, such as the instructions-retired counter, instret, may be modified as side effects of
+instruction execution. In these cases, if a CSR access instruction reads a CSR, it reads the value
+prior to the execution of the instruction. If a CSR access instruction writes such a CSR, the write
+is done instead of the increment. In particular, a value written to instret by one instruction will
+be the value read by the following instruction."
+"In
+particular, a CSR access is performed after the execution of any prior instructions in program
+order whose behavior modifies or is modified by the CSR state and before the execution of any
+subsequent instructions in program order whose behavior modifies or is modified by the CSR state." (Of course this is quite difficult; maybe you can try to define specific scenarios where the CSR access ordering becomes visible; an extremely easy scenario is of course writing a CSR and then reading it back; probably you can think of more exotic scenarios)</text>
+  </threadedComment>
+  <threadedComment ref="B14" dT="2020-09-17T20:56:43.11" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{9B934CE0-8FF8-4C69-AB69-BC7BD62ADE76}" parentId="{456611BB-44B4-4C47-996D-B62A7B488F8A}">
+    <text>GOOD ONES.   Thanks.  Although I think your second scenario (and maybe even your first scenario) should be in the CSR Vplan (which is not complete at the time of this writting).</text>
+  </threadedComment>
+  <threadedComment ref="B15" personId="{795DCD62-10AA-4F51-8591-F517B2355FB4}" id="{1AEDF478-A4FB-48AF-A21E-C4B39366624B}">
+    <text>Which VPLAN will take care of the following part of the RISC-V privileged spec:
+"Attempts to access a non-existent CSR raise an illegal instruction exception. Attempts to access a
+CSR without appropriate privilege level or to write a read-only register also raise illegal instruction
+exceptions. A read/write register might also contain some bits that are read-only, in which case
+writes to the read-only bits are ignored."
+Specifically also Debug related access rights should be checked.</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2020-09-17T20:43:04.75" personId="{44D48E48-E484-4722-934F-A143D4648DE4}" id="{E3F2212B-4BA2-4466-B878-9A93FB7B95C2}" parentId="{1AEDF478-A4FB-48AF-A21E-C4B39366624B}">
+    <text>This is done in several places.  The Exceptions and CSR Vplans both cover this.  I would prefer to have it done only in the Exceptions Vplan, but it is natural to do at least some of this testing in CSRs, so we have a bit of overlap (which I am prepared to accept).</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK13"/>
+  <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="54.5703125" style="4" customWidth="1"/>
-    <col min="10" max="1023" width="17" style="4" customWidth="1"/>
-    <col min="1024" max="1025" width="9.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="51.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="54.5703125" style="2" customWidth="1"/>
+    <col min="10" max="1023" width="17" style="2" customWidth="1"/>
+    <col min="1024" max="1025" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" ht="30">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="30">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" ht="56.1" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="72">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11"/>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9"/>
     </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" ht="57.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8" t="s">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="93" customHeight="1">
+      <c r="A4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="138.75" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="9"/>
     </row>
-    <row r="4" spans="1:9" s="12" customFormat="1" ht="93" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="86.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="86.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="86.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="12" customFormat="1" ht="138.75" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="86.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="99.75">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" s="13" customFormat="1">
+      <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="12" customFormat="1" ht="128.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" ht="85.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" s="12" customFormat="1" ht="128.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" s="12" customFormat="1" ht="128.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" s="15" customFormat="1">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="12" spans="1:9"/>
-    <row r="13" spans="1:9"/>
+    <row r="14" spans="1:9"/>
+    <row r="15" spans="1:9"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="F5:F9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A9"/>
